--- a/image/familymemberhistory.xlsx
+++ b/image/familymemberhistory.xlsx
@@ -1066,45 +1066,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.38671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.58203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="52.95703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="53.36328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="108.359375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.58203125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="48.38671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="109.19921875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.79296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="49.58203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="25.74609375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="179.640625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.01171875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="179.68359375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/familymemberhistory.xlsx
+++ b/image/familymemberhistory.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="293">
   <si>
     <t>Path</t>
   </si>
@@ -171,7 +171,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -475,6 +475,9 @@
     <t>The person who this history concerns.</t>
   </si>
   <si>
+    <t>This is not the family member.</t>
+  </si>
+  <si>
     <t>Event.subject</t>
   </si>
   <si>
@@ -510,10 +513,6 @@
   </si>
   <si>
     <t>FamilyMemberHistory.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>The family member described</t>
@@ -1066,45 +1065,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.58203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.38671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="53.36328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="52.95703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="109.19921875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.79296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="49.58203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="108.359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.58203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="48.38671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="25.01171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="179.68359375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.74609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="179.640625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2811,7 +2810,9 @@
       <c r="L16" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M16" s="2"/>
+      <c r="M16" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -2875,21 +2876,21 @@
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2912,19 +2913,19 @@
         <v>51</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -2973,7 +2974,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -2994,15 +2995,15 @@
         <v>40</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3025,7 +3026,7 @@
         <v>51</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>161</v>
@@ -3084,7 +3085,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -4244,7 +4245,7 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>232</v>
@@ -5233,7 +5234,7 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>160</v>
+        <v>52</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>232</v>
